--- a/results/mp/logistic/corona/confidence/42/desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,66 +49,66 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -124,94 +124,97 @@
     <t>best</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
+    <t>relief</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,7 +583,7 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -688,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8918918918918919</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>33</v>
@@ -762,13 +765,13 @@
         <v>34</v>
       </c>
       <c r="K5">
-        <v>0.95</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8823529411764706</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>35</v>
@@ -838,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8698630136986302</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C7">
-        <v>254</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>254</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8620689655172413</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K8">
-        <v>0.9112271540469974</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L8">
-        <v>349</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>349</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K9">
-        <v>0.9084507042253521</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L9">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.775</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K10">
-        <v>0.9069767441860465</v>
+        <v>0.890625</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7450980392156863</v>
+        <v>0.7151162790697675</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K11">
-        <v>0.8984375</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L11">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M11">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7142857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>0.8962264150943396</v>
+        <v>0.88125</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7073643410852714</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C13">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="D13">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K13">
-        <v>0.8936170212765957</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6949152542372882</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K14">
-        <v>0.8928571428571429</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6923076923076923</v>
+        <v>0.6308724832214765</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>0.8875</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L15">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="M15">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,13 +1291,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6410256410256411</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1306,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>45</v>
@@ -1338,13 +1341,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6241610738255033</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C17">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1356,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K17">
-        <v>0.8448275862068966</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1380,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1388,13 +1391,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5694444444444444</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C18">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1406,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K18">
-        <v>0.8414634146341463</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L18">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="M18">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1438,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5272727272727272</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1456,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>48</v>
@@ -1488,13 +1491,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5066666666666667</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1506,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K20">
-        <v>0.8</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L20">
         <v>32</v>
@@ -1530,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1538,13 +1541,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4642857142857143</v>
+        <v>0.3875</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1556,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K21">
-        <v>0.7948717948717948</v>
+        <v>0.8125</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1580,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1588,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3766233766233766</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1606,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K22">
-        <v>0.7916666666666666</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1630,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1638,13 +1641,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3333333333333333</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1656,19 +1659,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K23">
-        <v>0.7714285714285715</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1680,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1688,13 +1691,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3055555555555556</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C24">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1706,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>175</v>
+        <v>309</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K24">
-        <v>0.7558823529411764</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L24">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1730,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1738,37 +1741,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1313672922252011</v>
+        <v>0.01346801346801347</v>
       </c>
       <c r="C25">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>324</v>
+        <v>2344</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K25">
-        <v>0.7457627118644068</v>
+        <v>0.74</v>
       </c>
       <c r="L25">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1780,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1788,13 +1791,13 @@
         <v>55</v>
       </c>
       <c r="K26">
-        <v>0.74</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1803,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1840,13 +1843,13 @@
         <v>57</v>
       </c>
       <c r="K28">
-        <v>0.7078651685393258</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L28">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M28">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1858,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1866,13 +1869,13 @@
         <v>58</v>
       </c>
       <c r="K29">
-        <v>0.7058823529411765</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1884,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1892,13 +1895,13 @@
         <v>59</v>
       </c>
       <c r="K30">
-        <v>0.6857142857142857</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L30">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1910,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1918,13 +1921,13 @@
         <v>60</v>
       </c>
       <c r="K31">
-        <v>0.6808510638297872</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L31">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="M31">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1936,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1944,13 +1947,13 @@
         <v>61</v>
       </c>
       <c r="K32">
-        <v>0.6615384615384615</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L32">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1962,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1970,13 +1973,13 @@
         <v>62</v>
       </c>
       <c r="K33">
-        <v>0.5777777777777777</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1988,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1996,13 +1999,13 @@
         <v>63</v>
       </c>
       <c r="K34">
-        <v>0.46875</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2014,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2022,7 +2025,7 @@
         <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4246575342465753</v>
+        <v>0.484375</v>
       </c>
       <c r="L35">
         <v>31</v>
@@ -2040,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2048,13 +2051,13 @@
         <v>65</v>
       </c>
       <c r="K36">
-        <v>0.4102564102564102</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2066,7 +2069,33 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37">
+        <v>0.02333333333333333</v>
+      </c>
+      <c r="L37">
+        <v>28</v>
+      </c>
+      <c r="M37">
+        <v>28</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>1172</v>
       </c>
     </row>
   </sheetData>
